--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H2">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I2">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J2">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N2">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O2">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P2">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q2">
-        <v>108.4921342892427</v>
+        <v>111.162782791409</v>
       </c>
       <c r="R2">
-        <v>108.4921342892427</v>
+        <v>444.6511311656359</v>
       </c>
       <c r="S2">
-        <v>0.002159861148695289</v>
+        <v>0.00202550417415426</v>
       </c>
       <c r="T2">
-        <v>0.002159861148695289</v>
+        <v>0.001127349077807727</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H3">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I3">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J3">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P3">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q3">
-        <v>9091.429472259544</v>
+        <v>9773.940965210977</v>
       </c>
       <c r="R3">
-        <v>9091.429472259544</v>
+        <v>58643.64579126587</v>
       </c>
       <c r="S3">
-        <v>0.1809921560846618</v>
+        <v>0.1780916033752093</v>
       </c>
       <c r="T3">
-        <v>0.1809921560846618</v>
+        <v>0.1486825409141698</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H4">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I4">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J4">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N4">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O4">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P4">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q4">
-        <v>77.19451337734888</v>
+        <v>79.03531305566968</v>
       </c>
       <c r="R4">
-        <v>77.19451337734888</v>
+        <v>474.2118783340181</v>
       </c>
       <c r="S4">
-        <v>0.00153678818679767</v>
+        <v>0.001440107493532625</v>
       </c>
       <c r="T4">
-        <v>0.00153678818679767</v>
+        <v>0.001202296106441663</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H5">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I5">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J5">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N5">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O5">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P5">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q5">
-        <v>55.05262399898315</v>
+        <v>55.43033503869268</v>
       </c>
       <c r="R5">
-        <v>55.05262399898315</v>
+        <v>332.5820102321561</v>
       </c>
       <c r="S5">
-        <v>0.001095987506265912</v>
+        <v>0.001009999679535893</v>
       </c>
       <c r="T5">
-        <v>0.001095987506265912</v>
+        <v>0.0008432139181739639</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H6">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I6">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J6">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N6">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O6">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P6">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q6">
-        <v>176.8880492086697</v>
+        <v>200.7424538200678</v>
       </c>
       <c r="R6">
-        <v>176.8880492086697</v>
+        <v>1204.454722920407</v>
       </c>
       <c r="S6">
-        <v>0.003521486858537981</v>
+        <v>0.003657741088629349</v>
       </c>
       <c r="T6">
-        <v>0.003521486858537981</v>
+        <v>0.003053721954076567</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H7">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I7">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J7">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N7">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O7">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P7">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q7">
-        <v>3947.224056044998</v>
+        <v>4271.737188314491</v>
       </c>
       <c r="R7">
-        <v>3947.224056044998</v>
+        <v>17086.94875325796</v>
       </c>
       <c r="S7">
-        <v>0.07858132702153273</v>
+        <v>0.07783559648787119</v>
       </c>
       <c r="T7">
-        <v>0.07858132702153273</v>
+        <v>0.04332150436463784</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H8">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J8">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N8">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O8">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P8">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q8">
-        <v>32.74438792400294</v>
+        <v>35.56215601489266</v>
       </c>
       <c r="R8">
-        <v>32.74438792400294</v>
+        <v>213.372936089356</v>
       </c>
       <c r="S8">
-        <v>0.0006518751960977279</v>
+        <v>0.0006479803189638837</v>
       </c>
       <c r="T8">
-        <v>0.0006518751960977279</v>
+        <v>0.0005409764326897829</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H9">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J9">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P9">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q9">
-        <v>2743.915910343529</v>
+        <v>3126.787624032435</v>
       </c>
       <c r="R9">
-        <v>2743.915910343529</v>
+        <v>28141.08861629192</v>
       </c>
       <c r="S9">
-        <v>0.05462587134877188</v>
+        <v>0.05697339725702726</v>
       </c>
       <c r="T9">
-        <v>0.05462587134877188</v>
+        <v>0.07134768828073546</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H10">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J10">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N10">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O10">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P10">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q10">
-        <v>23.29834423658465</v>
+        <v>25.28423689109756</v>
       </c>
       <c r="R10">
-        <v>23.29834423658465</v>
+        <v>227.558132019878</v>
       </c>
       <c r="S10">
-        <v>0.0004638233810699166</v>
+        <v>0.0004607056973314738</v>
       </c>
       <c r="T10">
-        <v>0.0004638233810699166</v>
+        <v>0.0005769409595512673</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H11">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J11">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N11">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O11">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P11">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q11">
-        <v>16.61562368799041</v>
+        <v>17.73275347291956</v>
       </c>
       <c r="R11">
-        <v>16.61562368799041</v>
+        <v>159.594781256276</v>
       </c>
       <c r="S11">
-        <v>0.0003307837964488266</v>
+        <v>0.0003231096350479529</v>
       </c>
       <c r="T11">
-        <v>0.0003307837964488266</v>
+        <v>0.0004046296452693999</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H12">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I12">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J12">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N12">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O12">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P12">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q12">
-        <v>53.38719659590199</v>
+        <v>64.21964512131078</v>
       </c>
       <c r="R12">
-        <v>53.38719659590199</v>
+        <v>577.976806091797</v>
       </c>
       <c r="S12">
-        <v>0.00106283218152783</v>
+        <v>0.001170150260631772</v>
       </c>
       <c r="T12">
-        <v>0.00106283218152783</v>
+        <v>0.00146537717701009</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H13">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I13">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J13">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N13">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O13">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P13">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q13">
-        <v>1191.325404010502</v>
+        <v>1366.574140470322</v>
       </c>
       <c r="R13">
-        <v>1191.325404010502</v>
+        <v>8199.444842821931</v>
       </c>
       <c r="S13">
-        <v>0.02371690327997475</v>
+        <v>0.02490043480656573</v>
       </c>
       <c r="T13">
-        <v>0.02371690327997475</v>
+        <v>0.02078851471232916</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H14">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I14">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J14">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N14">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O14">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P14">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q14">
-        <v>79.49383730648758</v>
+        <v>81.40768834951866</v>
       </c>
       <c r="R14">
-        <v>79.49383730648758</v>
+        <v>488.4461300971119</v>
       </c>
       <c r="S14">
-        <v>0.001582563122053086</v>
+        <v>0.001483334695476358</v>
       </c>
       <c r="T14">
-        <v>0.001582563122053086</v>
+        <v>0.001238385007320741</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H15">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I15">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J15">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P15">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q15">
-        <v>6661.428684078026</v>
+        <v>7157.73678979887</v>
       </c>
       <c r="R15">
-        <v>6661.428684078026</v>
+        <v>64419.63110818982</v>
       </c>
       <c r="S15">
-        <v>0.1326157062334711</v>
+        <v>0.1304215797875436</v>
       </c>
       <c r="T15">
-        <v>0.1326157062334711</v>
+        <v>0.1633267220801896</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H16">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I16">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J16">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N16">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O16">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P16">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q16">
-        <v>56.56159432731246</v>
+        <v>57.87982247543956</v>
       </c>
       <c r="R16">
-        <v>56.56159432731246</v>
+        <v>520.918402278956</v>
       </c>
       <c r="S16">
-        <v>0.001126028083935842</v>
+        <v>0.001054631946766726</v>
       </c>
       <c r="T16">
-        <v>0.001126028083935842</v>
+        <v>0.001320713789443837</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H17">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I17">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J17">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N17">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O17">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P17">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q17">
-        <v>40.33789513074707</v>
+        <v>40.59322127988356</v>
       </c>
       <c r="R17">
-        <v>40.33789513074707</v>
+        <v>365.338991518952</v>
       </c>
       <c r="S17">
-        <v>0.0008030467193204075</v>
+        <v>0.0007396516808962617</v>
       </c>
       <c r="T17">
-        <v>0.0008030467193204075</v>
+        <v>0.0009262645393398824</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H18">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I18">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J18">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N18">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O18">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P18">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q18">
-        <v>129.6085646888246</v>
+        <v>147.0094460460438</v>
       </c>
       <c r="R18">
-        <v>129.6085646888246</v>
+        <v>1323.085014414394</v>
       </c>
       <c r="S18">
-        <v>0.002580246994341863</v>
+        <v>0.002678668517727856</v>
       </c>
       <c r="T18">
-        <v>0.002580246994341863</v>
+        <v>0.003354492019285261</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H19">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I19">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J19">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N19">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O19">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P19">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q19">
-        <v>2892.191115781259</v>
+        <v>3128.31543979871</v>
       </c>
       <c r="R19">
-        <v>2892.191115781259</v>
+        <v>18769.89263879226</v>
       </c>
       <c r="S19">
-        <v>0.05757773378228212</v>
+        <v>0.05700123568580909</v>
       </c>
       <c r="T19">
-        <v>0.05757773378228212</v>
+        <v>0.04758836686510114</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H20">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I20">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J20">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N20">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O20">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P20">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q20">
-        <v>78.37896901937614</v>
+        <v>80.69809135428332</v>
       </c>
       <c r="R20">
-        <v>78.37896901937614</v>
+        <v>484.1885481257</v>
       </c>
       <c r="S20">
-        <v>0.001560368326872592</v>
+        <v>0.001470405083247115</v>
       </c>
       <c r="T20">
-        <v>0.001560368326872592</v>
+        <v>0.001227590519748924</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H21">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I21">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J21">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N21">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O21">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P21">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q21">
-        <v>6568.004893777153</v>
+        <v>7095.345772172624</v>
       </c>
       <c r="R21">
-        <v>6568.004893777153</v>
+        <v>63858.11194955363</v>
       </c>
       <c r="S21">
-        <v>0.1307558256406831</v>
+        <v>0.129284749065441</v>
       </c>
       <c r="T21">
-        <v>0.1307558256406831</v>
+        <v>0.1619030709044905</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H22">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I22">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J22">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N22">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O22">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P22">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q22">
-        <v>55.76834129134615</v>
+        <v>57.37530811142778</v>
       </c>
       <c r="R22">
-        <v>55.76834129134615</v>
+        <v>516.3777730028501</v>
       </c>
       <c r="S22">
-        <v>0.001110236004402219</v>
+        <v>0.001045439158276138</v>
       </c>
       <c r="T22">
-        <v>0.001110236004402219</v>
+        <v>0.001309201676085065</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H23">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I23">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J23">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N23">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O23">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P23">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q23">
-        <v>39.77217278579711</v>
+        <v>40.23938703607778</v>
       </c>
       <c r="R23">
-        <v>39.77217278579711</v>
+        <v>362.1544833247</v>
       </c>
       <c r="S23">
-        <v>0.0007917843202367225</v>
+        <v>0.0007332044445120111</v>
       </c>
       <c r="T23">
-        <v>0.0007917843202367225</v>
+        <v>0.0009181906762044174</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H24">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I24">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J24">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N24">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O24">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P24">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q24">
-        <v>127.7908580161363</v>
+        <v>145.7280257858639</v>
       </c>
       <c r="R24">
-        <v>127.7908580161363</v>
+        <v>1311.552232072775</v>
       </c>
       <c r="S24">
-        <v>0.002544060094270408</v>
+        <v>0.002655319677219692</v>
       </c>
       <c r="T24">
-        <v>0.002544060094270408</v>
+        <v>0.003325252306112153</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H25">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I25">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J25">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N25">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O25">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P25">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q25">
-        <v>2851.62932804395</v>
+        <v>3101.047213894804</v>
       </c>
       <c r="R25">
-        <v>2851.62932804395</v>
+        <v>18606.28328336883</v>
       </c>
       <c r="S25">
-        <v>0.05677022980948835</v>
+        <v>0.05650437959779821</v>
       </c>
       <c r="T25">
-        <v>0.05677022980948835</v>
+        <v>0.04717355884364439</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H26">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I26">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J26">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N26">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O26">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P26">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q26">
-        <v>76.39957068553147</v>
+        <v>81.93291726355598</v>
       </c>
       <c r="R26">
-        <v>76.39957068553147</v>
+        <v>491.597503581336</v>
       </c>
       <c r="S26">
-        <v>0.001520962469599424</v>
+        <v>0.001492904925107667</v>
       </c>
       <c r="T26">
-        <v>0.001520962469599424</v>
+        <v>0.001246374862158071</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H27">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I27">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J27">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N27">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O27">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P27">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q27">
-        <v>6402.135169971366</v>
+        <v>7203.917321359109</v>
       </c>
       <c r="R27">
-        <v>6402.135169971366</v>
+        <v>64835.25589223199</v>
       </c>
       <c r="S27">
-        <v>0.1274536915777858</v>
+        <v>0.1312630382063693</v>
       </c>
       <c r="T27">
-        <v>0.1274536915777858</v>
+        <v>0.1643804790239213</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H28">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I28">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J28">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N28">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O28">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P28">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q28">
-        <v>54.35995632259155</v>
+        <v>58.25325349798533</v>
       </c>
       <c r="R28">
-        <v>54.35995632259155</v>
+        <v>524.279281481868</v>
       </c>
       <c r="S28">
-        <v>0.001082197879828969</v>
+        <v>0.001061436257309621</v>
       </c>
       <c r="T28">
-        <v>0.001082197879828969</v>
+        <v>0.001329234815939583</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H29">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I29">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J29">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N29">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O29">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P29">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q29">
-        <v>38.76775829131546</v>
+        <v>40.85512201631734</v>
       </c>
       <c r="R29">
-        <v>38.76775829131546</v>
+        <v>367.696098146856</v>
       </c>
       <c r="S29">
-        <v>0.0007717884388944523</v>
+        <v>0.0007444237909634962</v>
       </c>
       <c r="T29">
-        <v>0.0007717884388944523</v>
+        <v>0.000932240644643598</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H30">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I30">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J30">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N30">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O30">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P30">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q30">
-        <v>124.5636018452215</v>
+        <v>147.9579266289646</v>
       </c>
       <c r="R30">
-        <v>124.5636018452215</v>
+        <v>1331.621339660682</v>
       </c>
       <c r="S30">
-        <v>0.002479811886175776</v>
+        <v>0.002695950843085034</v>
       </c>
       <c r="T30">
-        <v>0.002479811886175776</v>
+        <v>0.003376134645874431</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H31">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I31">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J31">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N31">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O31">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P31">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q31">
-        <v>2779.613704321247</v>
+        <v>3148.498812579881</v>
       </c>
       <c r="R31">
-        <v>2779.613704321247</v>
+        <v>18890.99287547929</v>
       </c>
       <c r="S31">
-        <v>0.05533654294548913</v>
+        <v>0.05736899821199094</v>
       </c>
       <c r="T31">
-        <v>0.05533654294548913</v>
+        <v>0.04789539912158845</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H32">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I32">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J32">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N32">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O32">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P32">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q32">
-        <v>29.48234162664655</v>
+        <v>30.210954423993</v>
       </c>
       <c r="R32">
-        <v>29.48234162664655</v>
+        <v>120.843817695972</v>
       </c>
       <c r="S32">
-        <v>0.0005869343862495068</v>
+        <v>0.0005504757325642542</v>
       </c>
       <c r="T32">
-        <v>0.0005869343862495068</v>
+        <v>0.0003063821429649555</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H33">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I33">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J33">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N33">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O33">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P33">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q33">
-        <v>2470.562786248877</v>
+        <v>2656.285472781518</v>
       </c>
       <c r="R33">
-        <v>2470.562786248877</v>
+        <v>15937.71283668911</v>
       </c>
       <c r="S33">
-        <v>0.04918395801123455</v>
+        <v>0.04840034747025147</v>
       </c>
       <c r="T33">
-        <v>0.04918395801123455</v>
+        <v>0.04040778176298589</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H34">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I34">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J34">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N34">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O34">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P34">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q34">
-        <v>20.97732734270116</v>
+        <v>21.47960118173101</v>
       </c>
       <c r="R34">
-        <v>20.97732734270116</v>
+        <v>128.877607090386</v>
       </c>
       <c r="S34">
-        <v>0.0004176165823244942</v>
+        <v>0.0003913811867628712</v>
       </c>
       <c r="T34">
-        <v>0.0004176165823244942</v>
+        <v>0.0003267506620809463</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H35">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I35">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J35">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N35">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O35">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P35">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q35">
-        <v>14.9603496955288</v>
+        <v>15.064424293002</v>
       </c>
       <c r="R35">
-        <v>14.9603496955288</v>
+        <v>90.38654575801202</v>
       </c>
       <c r="S35">
-        <v>0.0002978306057849568</v>
+        <v>0.000274489838419775</v>
       </c>
       <c r="T35">
-        <v>0.0002978306057849568</v>
+        <v>0.0002291621045456494</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H36">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I36">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J36">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N36">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O36">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P36">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q36">
-        <v>48.06868194276231</v>
+        <v>54.5562190063065</v>
       </c>
       <c r="R36">
-        <v>48.06868194276231</v>
+        <v>327.337314037839</v>
       </c>
       <c r="S36">
-        <v>0.0009569512045949056</v>
+        <v>0.000994072355409655</v>
       </c>
       <c r="T36">
-        <v>0.0009569512045949056</v>
+        <v>0.0008299167442692325</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H37">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I37">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J37">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N37">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O37">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P37">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q37">
-        <v>1072.643734586156</v>
+        <v>1160.939428348124</v>
       </c>
       <c r="R37">
-        <v>1072.643734586156</v>
+        <v>4643.757713392498</v>
       </c>
       <c r="S37">
-        <v>0.02135418889029795</v>
+        <v>0.02115355156655107</v>
       </c>
       <c r="T37">
-        <v>0.02135418889029795</v>
+        <v>0.01177358069916935</v>
       </c>
     </row>
   </sheetData>
